--- a/Financial Analysis.xlsx
+++ b/Financial Analysis.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuriyamarisa/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFCA08F-0454-774F-8882-B3DCD202D599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF7E80-F4D5-2D47-8C14-2DB6EFBA8C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="28300" windowHeight="20040" xr2:uid="{EC9D4BBB-A8EA-BE4B-935D-02AD1C59CA38}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Dashboad" sheetId="2" r:id="rId1"/>
-    <sheet name="Apple Asset Dash Board" sheetId="3" r:id="rId2"/>
+    <sheet name="Product Sales Dashboad" sheetId="2" r:id="rId1"/>
+    <sheet name="Apple Asset Dashboard" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -22,7 +22,7 @@
   </externalReferences>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -260,12 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -290,6 +284,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="8">
@@ -671,12 +671,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -686,16 +680,22 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,43 +746,43 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -872,43 +872,43 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10222,7 +10222,210 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA20A105-8021-F043-A762-A7317ACF7BED}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B5036ED-26A6-C840-8BC8-1BAD4AEA7793}" name="PivotTable20" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="P35:Q42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Previous Quarter" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="12">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="8">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA20A105-8021-F043-A762-A7317ACF7BED}" name="PivotTable19" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="P23:Q30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -10275,26 +10478,26 @@
     <dataField name="Sum of Current Quarter" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="18">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="21">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
     <format dxfId="17">
@@ -10424,8 +10627,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C18E586-AEAE-894C-B111-9CBBABB95C85}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C18E586-AEAE-894C-B111-9CBBABB95C85}" name="PivotTable18" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="P11:R18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -10487,26 +10690,26 @@
     <dataField name="Sum of Current Quarter" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="24">
+    <format dxfId="35">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="33">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10516,26 +10719,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="29">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="27">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10579,209 +10782,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B5036ED-26A6-C840-8BC8-1BAD4AEA7793}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="P35:Q42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item h="1" x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Previous Quarter" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="12">
-    <format dxfId="30">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="8">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -11119,12 +11119,12 @@
   <dimension ref="B1:Z36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="B2" sqref="B2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="2" customWidth="1"/>
@@ -11135,38 +11135,38 @@
   <sheetData>
     <row r="1" spans="2:26" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="2:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="2:26" ht="27" x14ac:dyDescent="0.35">
       <c r="R4" s="30" t="s">
@@ -12172,43 +12172,43 @@
   <dimension ref="B1:V49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="C2" sqref="C2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="33" customWidth="1"/>
-    <col min="3" max="13" width="8.83203125" style="33"/>
-    <col min="14" max="14" width="10" style="33" customWidth="1"/>
-    <col min="15" max="15" width="3" style="36" customWidth="1"/>
-    <col min="16" max="16" width="26.5" style="33" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="20" style="33" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="33"/>
+    <col min="1" max="1" width="9.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="31" customWidth="1"/>
+    <col min="3" max="13" width="8.83203125" style="31"/>
+    <col min="14" max="14" width="10" style="31" customWidth="1"/>
+    <col min="15" max="15" width="3" style="34" customWidth="1"/>
+    <col min="16" max="16" width="26.5" style="31" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="20" style="31" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="36"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="39" t="s">
         <v>51</v>
       </c>
@@ -12223,14 +12223,14 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
     </row>
     <row r="3" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="36"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
@@ -12243,1010 +12243,1010 @@
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="2:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="P10" s="41" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="P10" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="P11" s="36" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="P11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="R11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="S11" s="36"/>
+      <c r="S11" s="34"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="P12" s="37" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="P12" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="34">
         <v>26278</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="34">
         <v>20815</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="V12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="V12" s="33"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="P13" s="37" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="P13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="34">
         <v>34940</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="34">
         <v>28098</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="V13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="V13" s="33"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="P14" s="37" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="P14" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="34">
         <v>6580</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="34">
         <v>5460</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="V14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="V14" s="33"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="P15" s="37" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="P15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="34">
         <v>27699</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="34">
         <v>23413</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="V15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="V15" s="33"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="P16" s="37" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="P16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="34">
         <v>14111</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="34">
         <v>15809</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="V16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="V16" s="33"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="P17" s="37" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="P17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="34">
         <v>25228</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="34">
         <v>24845</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="V17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="V17" s="33"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="P18" s="37" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="P18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="34">
         <v>134836</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="34">
         <v>118440</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="V18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="V18" s="33"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
     </row>
     <row r="22" spans="2:22" ht="27" x14ac:dyDescent="0.35">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="P22" s="41" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="P22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="P23" s="36" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="P23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q23" s="36" t="s">
+      <c r="Q23" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="P24" s="37" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="P24" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="34">
         <v>20815</v>
       </c>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="P25" s="37" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="P25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="34">
         <v>28098</v>
       </c>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="P26" s="37" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="P26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="34">
         <v>5460</v>
       </c>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="P27" s="37" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="P27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="34">
         <v>23413</v>
       </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="P28" s="37" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="P28" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="34">
         <v>15809</v>
       </c>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="P29" s="37" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="P29" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="34">
         <v>24845</v>
       </c>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="P30" s="37" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="P30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="34">
         <v>118440</v>
       </c>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
     </row>
     <row r="34" spans="2:19" ht="27" x14ac:dyDescent="0.35">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="P34" s="41" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="P34" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="P35" s="36" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="P35" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q35" s="36" t="s">
+      <c r="Q35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="P36" s="37" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="P36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="34">
         <v>26278</v>
       </c>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="P37" s="37" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="P37" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="34">
         <v>34940</v>
       </c>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="P38" s="37" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="P38" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="34">
         <v>6580</v>
       </c>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="P39" s="37" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="P39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="34">
         <v>27699</v>
       </c>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="P40" s="37" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="P40" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="Q40" s="34">
         <v>14111</v>
       </c>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="P41" s="37" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="P41" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="Q41" s="34">
         <v>25228</v>
       </c>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="P42" s="37" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="P42" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="34">
         <v>134836</v>
       </c>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
